--- a/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8D9422-1C3C-4DA3-8965-756487CD4FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E2DC91-4B91-405D-9D5D-FAFB50DD5B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1100,7 +1100,7 @@
   </si>
   <si>
     <t>各テキスト入力項目：
-&lt;h1&gt;hello!&lt;/h1&gt;
+&lt;script&gt;&lt;/script&gt;
 （XSS）</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
@@ -1494,6 +1494,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1503,21 +1524,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1536,6 +1542,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1544,78 +1616,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1969,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30:L30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1988,25 +1988,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2021,23 +2021,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="60" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2050,50 +2050,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="43" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="4" spans="1:17" ht="42.5" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="47"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="58"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2102,20 +2102,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="48" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2125,105 +2125,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="48" t="s">
+      <c r="P5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="49"/>
+      <c r="Q5" s="60"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="26" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="33"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="32"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="26" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -2235,18 +2235,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="26" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -2258,18 +2258,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="26" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2281,18 +2281,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="26" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -2304,66 +2304,66 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="26" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="33"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="32"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="26" t="s">
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="33"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="26" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2375,18 +2375,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="26" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2398,18 +2398,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="26" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2421,20 +2421,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="26" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2448,25 +2448,25 @@
       <c r="B19" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="31"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="31"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="30"/>
     </row>
     <row r="20" spans="1:17" ht="39" customHeight="1">
       <c r="A20" s="6">
@@ -2475,20 +2475,20 @@
       <c r="B20" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29" t="s">
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2502,20 +2502,20 @@
       <c r="B21" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="26" t="s">
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2529,20 +2529,20 @@
       <c r="B22" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29" t="s">
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2556,20 +2556,20 @@
       <c r="B23" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29" t="s">
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="31"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="30"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2583,20 +2583,20 @@
       <c r="B24" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="26" t="s">
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="28"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="35"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2610,20 +2610,20 @@
       <c r="B25" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29" t="s">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="31"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="30"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2637,13 +2637,13 @@
       <c r="B26" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="19" t="s">
         <v>75</v>
       </c>
@@ -2664,20 +2664,20 @@
       <c r="B27" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="26" t="s">
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="31"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="30"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2691,20 +2691,20 @@
       <c r="B28" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="26" t="s">
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="28"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2718,20 +2718,20 @@
       <c r="B29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="29" t="s">
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="31"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -2743,20 +2743,20 @@
         <v>25</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="29" t="s">
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="31"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -2768,20 +2768,20 @@
         <v>26</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="29" t="s">
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="31"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="30"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
@@ -2793,20 +2793,20 @@
         <v>27</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="29" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="31"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -2820,95 +2820,95 @@
       <c r="B33" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="52" t="s">
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
     </row>
     <row r="34" spans="1:17" ht="11.25" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
       <c r="B34" s="24"/>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="52" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
     </row>
     <row r="35" spans="1:17" ht="11.25" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
       <c r="B35" s="24"/>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="52" t="s">
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
     </row>
     <row r="36" spans="1:17" ht="11.25" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
       <c r="B36" s="24"/>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="52" t="s">
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
@@ -2920,45 +2920,45 @@
         <v>32</v>
       </c>
       <c r="B37" s="24"/>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="52" t="s">
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
     </row>
     <row r="38" spans="1:17" ht="11.25" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
       <c r="B38" s="24"/>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52" t="s">
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -2970,28 +2970,95 @@
         <v>34</v>
       </c>
       <c r="B39" s="25"/>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="29" t="s">
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="31"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="30"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="H39:L39"/>
     <mergeCell ref="P39:Q39"/>
@@ -3008,73 +3075,6 @@
     <mergeCell ref="H36:L36"/>
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E2DC91-4B91-405D-9D5D-FAFB50DD5B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7724EBE7-9D47-44AA-8D2B-0FA3E7743DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -218,16 +218,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>日本証券テクノロジー株式会社</t>
-    <rPh sb="0" eb="4">
-      <t>ニホンショウケン</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・画面の表示項目、入力内容におけるシステムの挙動・画面遷移について確認する。
 ・数値の範囲を確認する場合には同値分割や境界値分析の手法を用いる</t>
     <phoneticPr fontId="2"/>
@@ -409,16 +399,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「ログイン」画面が表示される。</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「商品情報メンテナンス」リンクを押下</t>
     <rPh sb="1" eb="5">
       <t>ショウヒンジョウホウ</t>
@@ -635,32 +615,6 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/ec-b/registerproductcategory/input」を入力</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/ec-b/registerproductcategory/input」を入力</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -705,136 +659,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品カテゴリ名：スポーツ用
-（文字数が5文字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品カテゴリ名：スポーツ用
-（文字数が4文字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品カテゴリ名：スポーツ用
-（文字数が19文字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品カテゴリ名：スポーツ用
-（文字数が20文字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品カテゴリ名：スポーツ用
-（文字数が21文字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>商品カテゴリ名：suports55
 （文字が半角英数字だけの場合）</t>
     <rPh sb="0" eb="2">
@@ -874,35 +698,6 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「文字数は５文字以上２０文字以内で入力をしなければなりません。」
-とエラー項目が表示される</t>
-    <rPh sb="1" eb="4">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1110,6 +905,196 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン前メニュー」画面が表示される。</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「文字数は２文字以上２０文字以内で入力をしなければなりません。」
+とエラー項目が表示される</t>
+    <rPh sb="1" eb="4">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ名：スポ
+（文字数が2文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ名：ス
+（文字数が1文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ名：1234567890123456789
+（文字数が19文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ名：12345678901234567890
+（文字数が20文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ名：123456789012345678901
+（文字数が21文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/registerproductcategory/input」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/registerproductcategory/input」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンショウケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1417,7 +1402,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1467,14 +1452,77 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1482,66 +1530,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1598,12 +1586,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1969,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:G30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1988,25 +1970,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2017,27 +1999,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="48" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2050,50 +2032,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="43" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="1:17" ht="42.5" customHeight="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="58"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2102,20 +2084,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="59" t="s">
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2125,16 +2107,16 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="59" t="s">
+      <c r="P5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="60"/>
+      <c r="Q5" s="61"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="27" t="s">
@@ -2145,7 +2127,7 @@
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
       <c r="H6" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
@@ -2161,7 +2143,7 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="27" t="s">
         <v>17</v>
       </c>
@@ -2170,7 +2152,7 @@
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
@@ -2187,648 +2169,646 @@
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="32"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="42"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="21"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="19"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="21"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="19"/>
     </row>
     <row r="11" spans="1:17" ht="11.25" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="21"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:17" ht="11.25" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="21"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:17" ht="11.25" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="32"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="42"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
+      <c r="C14" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="32"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="42"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="21"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="11.25" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="21"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" ht="11.25" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="21"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="21"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="37.5" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="30"/>
+      <c r="B19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="30"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="33"/>
     </row>
     <row r="20" spans="1:17" ht="39" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="30"/>
+      <c r="B20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="16"/>
-      <c r="Q20" s="18"/>
+      <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="47" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="30"/>
+      <c r="B21" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="16"/>
-      <c r="Q21" s="18"/>
+      <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="39" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="30"/>
+      <c r="B22" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="33"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="16"/>
-      <c r="Q22" s="18"/>
+      <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17" ht="39" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="30"/>
+      <c r="B23" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="16"/>
-      <c r="Q23" s="18"/>
+      <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="1:17" ht="39" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
+      <c r="B24" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="16"/>
-      <c r="Q24" s="18"/>
+      <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="1:17" ht="39" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="30"/>
+      <c r="B25" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="16"/>
-      <c r="Q25" s="18"/>
+      <c r="Q25" s="17"/>
     </row>
     <row r="26" spans="1:17" ht="39" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="18"/>
+      <c r="B26" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="30"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="16"/>
-      <c r="Q26" s="18"/>
+      <c r="Q26" s="17"/>
     </row>
     <row r="27" spans="1:17" ht="51.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="30"/>
+      <c r="B27" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="16"/>
-      <c r="Q27" s="18"/>
+      <c r="Q27" s="17"/>
     </row>
     <row r="28" spans="1:17" ht="51.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="35"/>
+      <c r="B28" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="16"/>
-      <c r="Q28" s="18"/>
-    </row>
-    <row r="29" spans="1:17" ht="62" customHeight="1">
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="1:17" ht="11.25" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
+      <c r="B29" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="18"/>
-    </row>
-    <row r="30" spans="1:17" ht="61" customHeight="1">
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+    </row>
+    <row r="30" spans="1:17" ht="11.25" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="30"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="18"/>
-    </row>
-    <row r="31" spans="1:17" ht="56.5" customHeight="1">
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+    </row>
+    <row r="31" spans="1:17" ht="11.25" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="30"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="18"/>
-    </row>
-    <row r="32" spans="1:17" ht="58.5" customHeight="1">
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+    </row>
+    <row r="32" spans="1:17" ht="11.25" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="30"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="18"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17" ht="11.25" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="27" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
@@ -2844,16 +2824,16 @@
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="27" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
@@ -2862,138 +2842,138 @@
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="1:17" ht="11.25" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="33"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="27"/>
       <c r="Q35" s="27"/>
     </row>
-    <row r="36" spans="1:17" ht="11.25" customHeight="1">
+    <row r="36" spans="1:17" ht="62" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
+      <c r="B36" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="33"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-    </row>
-    <row r="37" spans="1:17" ht="11.25" customHeight="1">
+      <c r="P36" s="16"/>
+      <c r="Q36" s="17"/>
+    </row>
+    <row r="37" spans="1:17" ht="61" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="33"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-    </row>
-    <row r="38" spans="1:17" ht="11.25" customHeight="1">
+      <c r="P37" s="16"/>
+      <c r="Q37" s="17"/>
+    </row>
+    <row r="38" spans="1:17" ht="56.5" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="33"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-    </row>
-    <row r="39" spans="1:17" ht="11.25" customHeight="1">
+      <c r="P38" s="16"/>
+      <c r="Q38" s="17"/>
+    </row>
+    <row r="39" spans="1:17" ht="58.5" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="30"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="33"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H24:L24"/>
+  <mergeCells count="85">
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="C28:G28"/>
@@ -3005,6 +2985,9 @@
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H24:L24"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
@@ -3027,54 +3010,55 @@
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C25:G25"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="C14:G17"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="H19:L19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
     <mergeCell ref="P33:Q33"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="H39:L39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7724EBE7-9D47-44AA-8D2B-0FA3E7743DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E737AE-1A99-4C92-A709-9B44728614C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -539,22 +539,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>管理者ログイン後の「メニュー」画面へ遷移すること</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「完了」ボタンを押下</t>
     <rPh sb="1" eb="3">
       <t>カンリョウ</t>
@@ -1095,6 +1079,25 @@
     <t>日本証券テクノロジー</t>
     <rPh sb="0" eb="4">
       <t>ニホンショウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者ログイン後の「メニュー」画面へ遷移し、セッションが破棄される</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1473,130 +1476,130 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1951,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36:L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1970,25 +1973,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1999,27 +2002,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2032,50 +2035,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="43" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="42.5" customHeight="1">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2084,20 +2087,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="60" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2107,105 +2110,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="60" t="s">
+      <c r="P5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="61"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="28" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="42"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="40"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="28" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -2217,18 +2220,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="28" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -2240,18 +2243,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="28" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2263,18 +2266,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="28" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -2286,66 +2289,66 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="28" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="42"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="40"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="42"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="40"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2357,18 +2360,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="28" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2380,18 +2383,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="28" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2403,20 +2406,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="28" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2428,49 +2431,49 @@
         <v>14</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="33"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="29"/>
     </row>
     <row r="20" spans="1:17" ht="39" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2482,22 +2485,22 @@
         <v>16</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
+        <v>62</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2509,22 +2512,22 @@
         <v>17</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2536,22 +2539,22 @@
         <v>18</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="29"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2563,22 +2566,22 @@
         <v>19</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="30"/>
+        <v>62</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2590,22 +2593,22 @@
         <v>20</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2617,22 +2620,22 @@
         <v>21</v>
       </c>
       <c r="B26" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2644,22 +2647,22 @@
         <v>22</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
+        <v>62</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2671,22 +2674,22 @@
         <v>23</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="26"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2700,95 +2703,95 @@
       <c r="B29" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="27" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
     </row>
     <row r="30" spans="1:17" ht="11.25" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
       <c r="B30" s="22"/>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="27" t="s">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
     </row>
     <row r="31" spans="1:17" ht="11.25" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
       <c r="B31" s="22"/>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="27" t="s">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
     </row>
     <row r="32" spans="1:17" ht="11.25" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
       <c r="B32" s="22"/>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="27" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -2800,45 +2803,45 @@
         <v>28</v>
       </c>
       <c r="B33" s="22"/>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="27" t="s">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-    </row>
-    <row r="34" spans="1:17" ht="11.25" customHeight="1">
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+    </row>
+    <row r="34" spans="1:17" ht="23.5" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
       <c r="B34" s="22"/>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -2850,47 +2853,47 @@
         <v>30</v>
       </c>
       <c r="B35" s="23"/>
-      <c r="C35" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="33"/>
+      <c r="C35" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="29"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
     </row>
     <row r="36" spans="1:17" ht="62" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="31" t="s">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="33"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="29"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
@@ -2901,21 +2904,21 @@
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="31" t="s">
+      <c r="B37" s="49"/>
+      <c r="C37" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="33"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="29"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
@@ -2926,21 +2929,21 @@
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31" t="s">
+      <c r="B38" s="49"/>
+      <c r="C38" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="33"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="29"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -2951,21 +2954,21 @@
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="33"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="29"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -2974,20 +2977,59 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
@@ -3004,61 +3046,22 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H24:L24"/>
     <mergeCell ref="C25:G25"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E737AE-1A99-4C92-A709-9B44728614C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3C4494-D01B-43F1-A6DA-3D6C4198E771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1050,32 +1050,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/registerproductcategory/input」を入力</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/registerproductcategory/input」を入力</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日本証券テクノロジー</t>
     <rPh sb="0" eb="4">
       <t>ニホンショウケン</t>
@@ -1098,6 +1072,32 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>ハキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/registerproductcategory/input」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/registerproductcategory/input」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1476,6 +1476,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1494,6 +1506,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1512,6 +1527,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1519,87 +1600,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1954,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36:L36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C36" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1973,25 +1973,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2002,27 +2002,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="58" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2035,50 +2035,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="43" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="1:17" ht="42.5" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2087,20 +2087,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46" t="s">
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2110,105 +2110,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="61"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="40"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="42"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -2220,18 +2220,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="24" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -2243,18 +2243,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2266,18 +2266,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="24" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -2289,66 +2289,66 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="40"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="42"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="24" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="40"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="42"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="24" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2360,18 +2360,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="24" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2383,18 +2383,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="24" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2406,20 +2406,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="24" t="s">
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2433,25 +2433,25 @@
       <c r="B19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="29"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="33"/>
     </row>
     <row r="20" spans="1:17" ht="39" customHeight="1">
       <c r="A20" s="6">
@@ -2460,20 +2460,20 @@
       <c r="B20" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2487,20 +2487,20 @@
       <c r="B21" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="24" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2514,20 +2514,20 @@
       <c r="B22" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27" t="s">
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="33"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2541,20 +2541,20 @@
       <c r="B23" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27" t="s">
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="29"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2568,20 +2568,20 @@
       <c r="B24" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="24" t="s">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="26"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2595,20 +2595,20 @@
       <c r="B25" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="29"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2622,20 +2622,20 @@
       <c r="B26" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="24" t="s">
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="30"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2649,20 +2649,20 @@
       <c r="B27" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="24" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="29"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2676,20 +2676,20 @@
       <c r="B28" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="24" t="s">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="26"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2703,95 +2703,95 @@
       <c r="B29" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="50" t="s">
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
     </row>
     <row r="30" spans="1:17" ht="11.25" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
       <c r="B30" s="22"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="50" t="s">
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
     </row>
     <row r="31" spans="1:17" ht="11.25" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
       <c r="B31" s="22"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="50" t="s">
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
     </row>
     <row r="32" spans="1:17" ht="11.25" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
       <c r="B32" s="22"/>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="50" t="s">
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -2803,45 +2803,45 @@
         <v>28</v>
       </c>
       <c r="B33" s="22"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="50" t="s">
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
     </row>
     <row r="34" spans="1:17" ht="23.5" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
       <c r="B34" s="22"/>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -2853,47 +2853,47 @@
         <v>30</v>
       </c>
       <c r="B35" s="23"/>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="27" t="s">
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="29"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="33"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
     </row>
     <row r="36" spans="1:17" ht="62" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27" t="s">
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="29"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="33"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
@@ -2904,21 +2904,21 @@
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="24" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27" t="s">
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="29"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="33"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
@@ -2929,21 +2929,21 @@
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27" t="s">
+      <c r="B38" s="25"/>
+      <c r="C38" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="29"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="33"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -2954,21 +2954,21 @@
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="29"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="33"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -2977,20 +2977,61 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="H30:L30"/>
@@ -3007,61 +3048,20 @@
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="H36:L36"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3C4494-D01B-43F1-A6DA-3D6C4198E771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582AE1C7-0AC5-4BA9-99AE-A48816CED1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -740,67 +740,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">「商品カテゴリ名は入力必須です。」
-「全角、半角英数字で入力しなければなりません。」
-「文字数は5文字以上20文字以内で入力をしなければなりません。」
-と２つのエラーメッセージが表示される
-</t>
-    <rPh sb="1" eb="3">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「文字数は5文字以上20文字以内で入力をしなければなりません。」
-とエラーメッセージが表示される</t>
-    <rPh sb="43" eb="45">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>商品カテゴリ登録（確認）画面に遷移する</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
@@ -1098,6 +1037,67 @@
     </rPh>
     <rPh sb="81" eb="83">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「文字数は2文字以上20文字以内で入力をしなければなりません。」
+とエラーメッセージが表示される</t>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「商品カテゴリ名は入力必須です。」
+「全角、半角英数字で入力しなければなりません。」
+「文字数は2文字以上20文字以内で入力をしなければなりません。」
+と２つのエラーメッセージが表示される
+</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1476,130 +1476,130 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1954,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C36" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:G39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36:L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1973,25 +1973,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2002,27 +2002,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2035,50 +2035,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="43" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="42.5" customHeight="1">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2087,20 +2087,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="60" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2110,105 +2110,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="60" t="s">
+      <c r="P5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="61"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="28" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="42"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="40"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="28" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -2220,18 +2220,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="28" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -2243,18 +2243,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="28" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2266,18 +2266,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="28" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -2289,66 +2289,66 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="28" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="42"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="40"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="28" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="42"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="40"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="28" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2360,18 +2360,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="28" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2383,18 +2383,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="28" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2406,20 +2406,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="28" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2433,25 +2433,25 @@
       <c r="B19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="33"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="29"/>
     </row>
     <row r="20" spans="1:17" ht="39" customHeight="1">
       <c r="A20" s="6">
@@ -2460,20 +2460,20 @@
       <c r="B20" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31" t="s">
+      <c r="C20" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2487,20 +2487,20 @@
       <c r="B21" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="28" t="s">
+      <c r="C21" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2514,20 +2514,20 @@
       <c r="B22" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31" t="s">
+      <c r="C22" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2541,20 +2541,20 @@
       <c r="B23" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31" t="s">
+      <c r="C23" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="29"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2568,20 +2568,20 @@
       <c r="B24" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="30"/>
+      <c r="C24" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2595,20 +2595,20 @@
       <c r="B25" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2622,20 +2622,20 @@
       <c r="B26" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="28" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2649,20 +2649,20 @@
       <c r="B27" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2674,22 +2674,22 @@
         <v>23</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="26"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2703,95 +2703,95 @@
       <c r="B29" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="27" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
     </row>
     <row r="30" spans="1:17" ht="11.25" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
       <c r="B30" s="22"/>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="27" t="s">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
     </row>
     <row r="31" spans="1:17" ht="11.25" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
       <c r="B31" s="22"/>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="27" t="s">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
     </row>
     <row r="32" spans="1:17" ht="11.25" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
       <c r="B32" s="22"/>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="27" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -2803,45 +2803,45 @@
         <v>28</v>
       </c>
       <c r="B33" s="22"/>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="27" t="s">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
     </row>
     <row r="34" spans="1:17" ht="23.5" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
       <c r="B34" s="22"/>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -2853,47 +2853,47 @@
         <v>30</v>
       </c>
       <c r="B35" s="23"/>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="33"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="29"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
     </row>
     <row r="36" spans="1:17" ht="62" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="31" t="s">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="33"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="29"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
@@ -2904,21 +2904,21 @@
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="31" t="s">
+      <c r="B37" s="49"/>
+      <c r="C37" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="33"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="29"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
@@ -2929,21 +2929,21 @@
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31" t="s">
+      <c r="B38" s="49"/>
+      <c r="C38" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="33"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="29"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -2954,21 +2954,21 @@
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="33"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="29"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -2977,6 +2977,75 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="C28:G28"/>
@@ -2993,75 +3062,6 @@
     <mergeCell ref="H24:L24"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C21:G21"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582AE1C7-0AC5-4BA9-99AE-A48816CED1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37E3AF1-C8D3-4560-926E-FCEE6A9CFB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
   <si>
     <t>作成者</t>
   </si>
@@ -1098,6 +1098,17 @@
     </rPh>
     <rPh sb="89" eb="91">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1476,6 +1487,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1494,6 +1517,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1512,6 +1538,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1519,87 +1611,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1954,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36:L36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B5" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1973,25 +1984,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2006,23 +2017,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="58" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2032,53 +2043,55 @@
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="43" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="1:17" ht="42.5" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2087,20 +2100,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46" t="s">
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2110,108 +2123,132 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="61"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="40"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="42"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="19"/>
     </row>
@@ -2220,21 +2257,27 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="24" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="19"/>
     </row>
@@ -2243,21 +2286,27 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="19"/>
     </row>
@@ -2266,21 +2315,27 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="24" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="19"/>
     </row>
@@ -2289,69 +2344,87 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="40"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="42"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="24" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="40"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="42"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="24" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="19"/>
     </row>
@@ -2360,21 +2433,27 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="24" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
     </row>
@@ -2383,21 +2462,27 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="24" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="19"/>
     </row>
@@ -2406,23 +2491,29 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="24" t="s">
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="19"/>
     </row>
@@ -2433,25 +2524,25 @@
       <c r="B19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="29"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="33"/>
     </row>
     <row r="20" spans="1:17" ht="39" customHeight="1">
       <c r="A20" s="6">
@@ -2460,20 +2551,20 @@
       <c r="B20" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2487,20 +2578,20 @@
       <c r="B21" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="24" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2514,20 +2605,20 @@
       <c r="B22" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27" t="s">
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="33"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2541,20 +2632,20 @@
       <c r="B23" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27" t="s">
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="29"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2568,20 +2659,20 @@
       <c r="B24" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="24" t="s">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="26"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2595,20 +2686,20 @@
       <c r="B25" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="29"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2622,20 +2713,20 @@
       <c r="B26" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="24" t="s">
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="30"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2649,20 +2740,20 @@
       <c r="B27" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="24" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="29"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2676,20 +2767,20 @@
       <c r="B28" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="24" t="s">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="26"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2703,95 +2794,95 @@
       <c r="B29" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="50" t="s">
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
     </row>
     <row r="30" spans="1:17" ht="11.25" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
       <c r="B30" s="22"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="50" t="s">
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
     </row>
     <row r="31" spans="1:17" ht="11.25" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
       <c r="B31" s="22"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="50" t="s">
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
     </row>
     <row r="32" spans="1:17" ht="11.25" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
       <c r="B32" s="22"/>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="50" t="s">
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -2803,45 +2894,45 @@
         <v>28</v>
       </c>
       <c r="B33" s="22"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="50" t="s">
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
     </row>
     <row r="34" spans="1:17" ht="23.5" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
       <c r="B34" s="22"/>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="64" t="s">
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -2853,47 +2944,47 @@
         <v>30</v>
       </c>
       <c r="B35" s="23"/>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="27" t="s">
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="29"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="33"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
     </row>
     <row r="36" spans="1:17" ht="62" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27" t="s">
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="29"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="33"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
@@ -2904,21 +2995,21 @@
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="24" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27" t="s">
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="29"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="33"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
@@ -2929,21 +3020,21 @@
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="24" t="s">
+      <c r="B38" s="25"/>
+      <c r="C38" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27" t="s">
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="29"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="33"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -2954,21 +3045,21 @@
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="24" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27" t="s">
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="29"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="33"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -2977,20 +3068,61 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="H30:L30"/>
@@ -3007,61 +3139,20 @@
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="H36:L36"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37E3AF1-C8D3-4560-926E-FCEE6A9CFB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3271868B-E488-4640-A47A-81B3551559D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="96">
   <si>
     <t>作成者</t>
   </si>
@@ -732,14 +732,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「全角、半角英数字で入力しなければなりません。」
-とエラーメッセージが表示される</t>
-    <rPh sb="35" eb="37">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>商品カテゴリ登録（確認）画面に遷移する</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
@@ -1049,8 +1041,119 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー画面の文言が異なる</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「文字数は2文字以上20文字以内で入力をしなければなりません。」
+と出すところのエラー文言が異なる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前メニューに遷移してしまう。</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ名は全角または半角英数字のみ」なため確認画面にそもそも遷移しない</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川・高良</t>
+    <rPh sb="0" eb="2">
+      <t>タテカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完了ボタンに変更すること（修正済み）</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まだ未実装</t>
+    <rPh sb="2" eb="5">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t xml:space="preserve">「商品カテゴリ名は入力必須です。」
-「全角、半角英数字で入力しなければなりません。」
+「商品カテゴリ名は全角または半角英数字のみです。」
 「文字数は2文字以上20文字以内で入力をしなければなりません。」
 と２つのエラーメッセージが表示される
 </t>
@@ -1067,48 +1170,88 @@
       <t>ヒッス</t>
     </rPh>
     <rPh sb="19" eb="21">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
       <t>ゼンカク</t>
     </rPh>
-    <rPh sb="22" eb="24">
+    <rPh sb="32" eb="34">
       <t>ハンカク</t>
     </rPh>
-    <rPh sb="24" eb="27">
+    <rPh sb="34" eb="37">
       <t>エイスウジ</t>
     </rPh>
-    <rPh sb="28" eb="30">
+    <rPh sb="45" eb="48">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="44" eb="47">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="89" eb="91">
+    <rPh sb="90" eb="92">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>〇</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>高良</t>
-    <rPh sb="0" eb="2">
-      <t>タカラ</t>
+    <t>「商品カテゴリ名は全角または半角英数字のみです。」
+とエラーメッセージが表示される</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ名は全角または半角英数字のみです」が「商品名」になっている。</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1965,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B5" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1979,7 +2122,7 @@
     <col min="12" max="12" width="18.6328125" style="4" customWidth="1"/>
     <col min="13" max="15" width="8.453125" style="4" customWidth="1"/>
     <col min="16" max="16" width="17.1796875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="23.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.453125" style="4" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
@@ -2013,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
@@ -2044,7 +2187,7 @@
         <v>5</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="43" customHeight="1">
@@ -2053,7 +2196,7 @@
       </c>
       <c r="B3" s="56"/>
       <c r="C3" s="57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="58"/>
       <c r="E3" s="58"/>
@@ -2153,10 +2296,10 @@
         <v>45503</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
@@ -2184,10 +2327,10 @@
         <v>45503</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
@@ -2215,10 +2358,10 @@
         <v>45503</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P8" s="41"/>
       <c r="Q8" s="42"/>
@@ -2244,10 +2387,10 @@
         <v>45503</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="19"/>
@@ -2273,10 +2416,10 @@
         <v>45503</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="19"/>
@@ -2302,10 +2445,10 @@
         <v>45503</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="19"/>
@@ -2331,10 +2474,10 @@
         <v>45503</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="19"/>
@@ -2360,10 +2503,10 @@
         <v>45503</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P13" s="41"/>
       <c r="Q13" s="42"/>
@@ -2391,10 +2534,10 @@
         <v>45503</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="42"/>
@@ -2420,10 +2563,10 @@
         <v>45503</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="19"/>
@@ -2449,10 +2592,10 @@
         <v>45503</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
@@ -2478,10 +2621,10 @@
         <v>45503</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="19"/>
@@ -2509,10 +2652,10 @@
         <v>45503</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="19"/>
@@ -2540,7 +2683,9 @@
       <c r="L19" s="33"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="O19" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="P19" s="31"/>
       <c r="Q19" s="33"/>
     </row>
@@ -2552,7 +2697,7 @@
         <v>61</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -2567,7 +2712,9 @@
       <c r="L20" s="33"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="O20" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
     </row>
@@ -2579,14 +2726,14 @@
         <v>62</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="30"/>
       <c r="H21" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
@@ -2594,8 +2741,12 @@
       <c r="L21" s="33"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="16"/>
+      <c r="O21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="39" customHeight="1">
@@ -2606,7 +2757,7 @@
         <v>61</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -2621,7 +2772,9 @@
       <c r="L22" s="33"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="O22" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
     </row>
@@ -2633,7 +2786,7 @@
         <v>61</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
@@ -2648,7 +2801,9 @@
       <c r="L23" s="33"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+      <c r="O23" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
     </row>
@@ -2660,14 +2815,14 @@
         <v>62</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
       <c r="H24" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
@@ -2675,8 +2830,12 @@
       <c r="L24" s="30"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="16"/>
+      <c r="O24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="1:17" ht="39" customHeight="1">
@@ -2702,7 +2861,9 @@
       <c r="L25" s="33"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
+      <c r="O25" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
     </row>
@@ -2721,7 +2882,7 @@
       <c r="F26" s="29"/>
       <c r="G26" s="30"/>
       <c r="H26" s="28" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
@@ -2729,11 +2890,15 @@
       <c r="L26" s="30"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="17"/>
-    </row>
-    <row r="27" spans="1:17" ht="51.5" customHeight="1">
+      <c r="O26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q26" s="30"/>
+    </row>
+    <row r="27" spans="1:17" ht="72" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
@@ -2748,7 +2913,7 @@
       <c r="F27" s="29"/>
       <c r="G27" s="30"/>
       <c r="H27" s="28" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
@@ -2756,26 +2921,30 @@
       <c r="L27" s="33"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="17"/>
+      <c r="O27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P27" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q27" s="33"/>
     </row>
     <row r="28" spans="1:17" ht="51.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>66</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>67</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
       <c r="G28" s="30"/>
       <c r="H28" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
@@ -2783,7 +2952,9 @@
       <c r="L28" s="30"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+      <c r="O28" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
     </row>
@@ -2810,7 +2981,9 @@
       <c r="L29" s="27"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="O29" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="P29" s="27"/>
       <c r="Q29" s="27"/>
     </row>
@@ -2835,7 +3008,9 @@
       <c r="L30" s="27"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+      <c r="O30" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="P30" s="27"/>
       <c r="Q30" s="27"/>
     </row>
@@ -2860,9 +3035,11 @@
       <c r="L31" s="27"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
+      <c r="O31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="33"/>
     </row>
     <row r="32" spans="1:17" ht="11.25" customHeight="1">
       <c r="A32" s="6">
@@ -2885,9 +3062,11 @@
       <c r="L32" s="27"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
+      <c r="O32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="33"/>
     </row>
     <row r="33" spans="1:17" ht="11.25" customHeight="1">
       <c r="A33" s="6">
@@ -2910,8 +3089,12 @@
       <c r="L33" s="27"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="27"/>
+      <c r="O33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P33" s="27" t="s">
+        <v>88</v>
+      </c>
       <c r="Q33" s="27"/>
     </row>
     <row r="34" spans="1:17" ht="23.5" customHeight="1">
@@ -2927,7 +3110,7 @@
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
       <c r="H34" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I34" s="34"/>
       <c r="J34" s="34"/>
@@ -2935,9 +3118,11 @@
       <c r="L34" s="34"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
+      <c r="O34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="33"/>
     </row>
     <row r="35" spans="1:17" ht="11.25" customHeight="1">
       <c r="A35" s="6">
@@ -2952,7 +3137,7 @@
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
@@ -2960,8 +3145,12 @@
       <c r="L35" s="33"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="27"/>
+      <c r="O35" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P35" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="Q35" s="27"/>
     </row>
     <row r="36" spans="1:17" ht="62" customHeight="1">
@@ -2987,8 +3176,12 @@
       <c r="L36" s="33"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="16"/>
+      <c r="O36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="Q36" s="17"/>
     </row>
     <row r="37" spans="1:17" ht="61" customHeight="1">
@@ -2997,7 +3190,7 @@
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
@@ -3012,8 +3205,12 @@
       <c r="L37" s="33"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="16"/>
+      <c r="O37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P37" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="Q37" s="17"/>
     </row>
     <row r="38" spans="1:17" ht="56.5" customHeight="1">
@@ -3022,7 +3219,7 @@
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="29"/>
       <c r="E38" s="29"/>
@@ -3037,8 +3234,12 @@
       <c r="L38" s="33"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="16"/>
+      <c r="O38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P38" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="Q38" s="17"/>
     </row>
     <row r="39" spans="1:17" ht="58.5" customHeight="1">
@@ -3047,14 +3248,14 @@
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
       <c r="F39" s="29"/>
       <c r="G39" s="30"/>
       <c r="H39" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
@@ -3062,12 +3263,20 @@
       <c r="L39" s="33"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="16"/>
+      <c r="O39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P39" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="89">
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P32:Q32"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="C28:G28"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3271868B-E488-4640-A47A-81B3551559D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BE2ECE-443D-4CC6-A2D9-73F4C779FB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="10790" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="93">
   <si>
     <t>作成者</t>
   </si>
@@ -308,16 +308,6 @@
   <si>
     <t>「キャンセル」リンクが表示されている</t>
     <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「完了」ボタンが表示されている</t>
-    <rPh sb="1" eb="3">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -519,16 +509,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログイン画面へ遷移すること</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「キャンセル」リンクを押下</t>
     <rPh sb="11" eb="12">
       <t>オ</t>
@@ -824,48 +804,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「ログイン前メニュー」画面が表示される。</t>
-    <rPh sb="5" eb="6">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「文字数は２文字以上２０文字以内で入力をしなければなりません。」
-とエラー項目が表示される</t>
-    <rPh sb="1" eb="4">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>商品カテゴリ名：スポ
 （文字数が2文字の場合）</t>
     <rPh sb="0" eb="2">
@@ -1033,14 +971,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「文字数は2文字以上20文字以内で入力をしなければなりません。」
-とエラーメッセージが表示される</t>
-    <rPh sb="43" eb="45">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1052,28 +982,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラー画面の文言が異なる</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>モンゴン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「文字数は2文字以上20文字以内で入力をしなければなりません。」
-と出すところのエラー文言が異なる</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>未実装</t>
     <rPh sb="0" eb="3">
       <t>ミジッソウ</t>
@@ -1081,16 +989,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログイン前メニューに遷移してしまう。</t>
-    <rPh sb="4" eb="5">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「商品カテゴリ名は全角または半角英数字のみ」なため確認画面にそもそも遷移しない</t>
     <rPh sb="1" eb="3">
       <t>ショウヒン</t>
@@ -1152,9 +1050,134 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>「商品カテゴリ名は全角または半角英数字のみです。」
+とエラーメッセージが表示される</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「確認」ボタンが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前メニューへ遷移すること</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ名は2文字以上20文字以下で入力してください。」
+とエラー項目が表示される</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー画面の文言が異なる（修正済み）</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ名は全角または半角英数字のみです」が「商品名」になっている。（修正済み）</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t xml:space="preserve">「商品カテゴリ名は入力必須です。」
 「商品カテゴリ名は全角または半角英数字のみです。」
-「文字数は2文字以上20文字以内で入力をしなければなりません。」
+「商品カテゴリ名は2文字以上20文字以下で入力してください。」
 と２つのエラーメッセージが表示される
 </t>
     <rPh sb="1" eb="3">
@@ -1184,74 +1207,71 @@
     <rPh sb="34" eb="37">
       <t>エイスウジ</t>
     </rPh>
-    <rPh sb="45" eb="48">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
+    <rPh sb="45" eb="47">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
       <t>モジ</t>
     </rPh>
-    <rPh sb="52" eb="54">
+    <rPh sb="56" eb="58">
       <t>イジョウ</t>
     </rPh>
-    <rPh sb="56" eb="58">
+    <rPh sb="60" eb="62">
       <t>モジ</t>
     </rPh>
-    <rPh sb="58" eb="60">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
+    <rPh sb="62" eb="64">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="90" eb="92">
+    <rPh sb="89" eb="91">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「商品カテゴリ名は全角または半角英数字のみです。」
-とエラーメッセージが表示される</t>
+    <t>「商品カテゴリ名は2文字以上20文字以下で入力してください。」
+と出すところのエラー文言が異なる（修正済み）</t>
     <rPh sb="1" eb="3">
       <t>ショウヒン</t>
     </rPh>
     <rPh sb="7" eb="8">
       <t>メイ</t>
     </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン画面」に遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
     <rPh sb="9" eb="11">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「商品カテゴリ名は全角または半角英数字のみです」が「商品名」になっている。</t>
-    <rPh sb="1" eb="3">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>メイ</t>
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1312,7 +1332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1322,6 +1342,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1559,7 +1585,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1630,131 +1656,167 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2108,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26:Q26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C30" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2127,25 +2189,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2156,27 +2218,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2187,54 +2249,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="43" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="42.5" customHeight="1">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2243,20 +2305,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="60" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2266,131 +2328,131 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="60" t="s">
+      <c r="P5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="61"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="15">
         <v>45503</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
+        <v>77</v>
+      </c>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
       <c r="M7" s="15">
         <v>45503</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
+        <v>77</v>
+      </c>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="28" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="15">
         <v>45503</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="42"/>
+        <v>77</v>
+      </c>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="40"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="28" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="15">
         <v>45503</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="19"/>
@@ -2400,26 +2462,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="28" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="15">
         <v>45503</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="19"/>
@@ -2429,26 +2491,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="28" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="15">
         <v>45503</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="19"/>
@@ -2458,26 +2520,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="28" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="15">
         <v>45503</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="19"/>
@@ -2487,86 +2549,86 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="28" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="15">
         <v>45503</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="42"/>
+        <v>77</v>
+      </c>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="40"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="15">
         <v>45503</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="42"/>
+        <v>77</v>
+      </c>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="40"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="15">
         <v>45503</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="19"/>
@@ -2576,26 +2638,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="28" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="15">
         <v>45503</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
@@ -2605,26 +2667,26 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="25"/>
       <c r="M17" s="15">
         <v>45503</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="19"/>
@@ -2634,28 +2696,28 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="25"/>
       <c r="M18" s="15">
         <v>45503</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="19"/>
@@ -2665,55 +2727,55 @@
         <v>14</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
+        <v>55</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="26"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="33"/>
+        <v>77</v>
+      </c>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="26"/>
     </row>
     <row r="20" spans="1:17" ht="39" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+        <v>59</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="26"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
@@ -2723,29 +2785,29 @@
         <v>16</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
+        <v>60</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="26"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q21" s="17"/>
     </row>
@@ -2754,26 +2816,26 @@
         <v>17</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
+        <v>59</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="26"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
@@ -2783,26 +2845,26 @@
         <v>18</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33"/>
+        <v>59</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="26"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
@@ -2812,29 +2874,29 @@
         <v>19</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="28" t="s">
-        <v>81</v>
+        <v>60</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
-      <c r="L24" s="30"/>
+      <c r="L24" s="26"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q24" s="17"/>
     </row>
@@ -2843,26 +2905,26 @@
         <v>20</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
+      <c r="C25" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="26"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
@@ -2872,88 +2934,88 @@
         <v>21</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
+        <v>60</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P26" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q26" s="30"/>
+        <v>77</v>
+      </c>
+      <c r="P26" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="1:17" ht="72" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
+      <c r="C27" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P27" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q27" s="33"/>
+        <v>77</v>
+      </c>
+      <c r="P27" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q27" s="26"/>
     </row>
     <row r="28" spans="1:17" ht="51.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
@@ -2965,222 +3027,220 @@
       <c r="B29" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
+        <v>77</v>
+      </c>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
     </row>
     <row r="30" spans="1:17" ht="11.25" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
       <c r="B30" s="22"/>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
+        <v>77</v>
+      </c>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
     </row>
     <row r="31" spans="1:17" ht="11.25" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
       <c r="B31" s="22"/>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="33"/>
+        <v>79</v>
+      </c>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="26"/>
     </row>
     <row r="32" spans="1:17" ht="11.25" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
       <c r="B32" s="22"/>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="33"/>
+        <v>77</v>
+      </c>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="26"/>
     </row>
     <row r="33" spans="1:17" ht="11.25" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
       <c r="B33" s="22"/>
-      <c r="C33" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
+      <c r="C33" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P33" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q33" s="27"/>
+        <v>77</v>
+      </c>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
     </row>
     <row r="34" spans="1:17" ht="23.5" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
       <c r="B34" s="22"/>
-      <c r="C34" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
+      <c r="C34" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="33"/>
+        <v>77</v>
+      </c>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="26"/>
     </row>
     <row r="35" spans="1:17" ht="11.25" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
       <c r="B35" s="23"/>
-      <c r="C35" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="33"/>
+      <c r="C35" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="26"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="P35" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q35" s="27"/>
+      <c r="Q35" s="50"/>
     </row>
     <row r="36" spans="1:17" ht="62" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="33"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="26"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Q36" s="17"/>
     </row>
@@ -3188,112 +3248,131 @@
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="33"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="26"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Q37" s="17"/>
     </row>
-    <row r="38" spans="1:17" ht="56.5" customHeight="1">
-      <c r="A38" s="6">
+    <row r="38" spans="1:17" s="77" customFormat="1" ht="56.5" customHeight="1">
+      <c r="A38" s="66">
         <v>33</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P38" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q38" s="17"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q38" s="76"/>
     </row>
     <row r="39" spans="1:17" ht="58.5" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="33"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="26"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P39" s="16" t="s">
-        <v>92</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P39" s="16"/>
       <c r="Q39" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -3310,58 +3389,35 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C14:G17"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
     <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BE2ECE-443D-4CC6-A2D9-73F4C779FB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A1C958-22C7-46A3-A52D-DF48CFB95E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="10790" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
   <si>
     <t>作成者</t>
   </si>
@@ -379,16 +379,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「不正な操作」</t>
-    <rPh sb="1" eb="3">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「商品情報メンテナンス」リンクを押下</t>
     <rPh sb="1" eb="5">
       <t>ショウヒンジョウホウ</t>
@@ -945,19 +935,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/registerproductcategory/input」を入力</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/registerproductcategory/input」を入力</t>
     <rPh sb="9" eb="11">
       <t>ジョウタイ</t>
@@ -1039,13 +1016,6 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>まだ未実装</t>
-    <rPh sb="2" eb="5">
-      <t>ミジッソウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1332,7 +1302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1342,12 +1312,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,7 +1549,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1656,23 +1620,104 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1700,123 +1745,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2168,10 +2096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C30" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="L47" activeCellId="1" sqref="L48 L45:L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2189,25 +2117,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2218,27 +2146,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="58" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2249,54 +2177,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="43" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="51"/>
     </row>
     <row r="4" spans="1:17" ht="42.5" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="51"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2305,20 +2233,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2328,131 +2256,131 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
       <c r="M6" s="15">
         <v>45503</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+        <v>75</v>
+      </c>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="15">
         <v>45503</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
+        <v>75</v>
+      </c>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="25"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
       <c r="M8" s="15">
         <v>45503</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="40"/>
+        <v>75</v>
+      </c>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
       <c r="M9" s="15">
         <v>45503</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="19"/>
@@ -2462,26 +2390,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="24" t="s">
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="25"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
       <c r="M10" s="15">
         <v>45503</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="19"/>
@@ -2491,26 +2419,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="25"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
       <c r="M11" s="15">
         <v>45503</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="19"/>
@@ -2520,26 +2448,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="24" t="s">
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="25"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
       <c r="M12" s="15">
         <v>45503</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="19"/>
@@ -2549,86 +2477,86 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="25"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
       <c r="M13" s="15">
         <v>45503</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="40"/>
+        <v>75</v>
+      </c>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="56"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="25"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="15">
         <v>45503</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="40"/>
+        <v>75</v>
+      </c>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="56"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="25"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="15">
         <v>45503</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="19"/>
@@ -2638,26 +2566,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="24" t="s">
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="25"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="15">
         <v>45503</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
@@ -2667,26 +2595,26 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="25"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="15">
         <v>45503</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="19"/>
@@ -2696,28 +2624,28 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="24" t="s">
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="25"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="15">
         <v>45503</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="19"/>
@@ -2727,55 +2655,55 @@
         <v>14</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="27" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="26"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="26"/>
+        <v>75</v>
+      </c>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="33"/>
     </row>
     <row r="20" spans="1:17" ht="39" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="26"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
@@ -2785,29 +2713,29 @@
         <v>16</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="26"/>
+        <v>59</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q21" s="17"/>
     </row>
@@ -2816,26 +2744,26 @@
         <v>17</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="26"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="33"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P22" s="16"/>
       <c r="Q22" s="17"/>
@@ -2845,26 +2773,26 @@
         <v>18</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="26"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
@@ -2874,29 +2802,29 @@
         <v>19</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="26"/>
+        <v>59</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q24" s="17"/>
     </row>
@@ -2905,26 +2833,26 @@
         <v>20</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="26"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
@@ -2934,88 +2862,88 @@
         <v>21</v>
       </c>
       <c r="B26" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="25"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="30"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P26" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q26" s="25"/>
+        <v>75</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q26" s="30"/>
     </row>
     <row r="27" spans="1:17" ht="72" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="26"/>
+        <v>59</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P27" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q27" s="26"/>
+        <v>75</v>
+      </c>
+      <c r="P27" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q27" s="33"/>
     </row>
     <row r="28" spans="1:17" ht="51.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="25"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
@@ -3027,220 +2955,220 @@
       <c r="B29" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
+        <v>75</v>
+      </c>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
     </row>
     <row r="30" spans="1:17" ht="11.25" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
       <c r="B30" s="22"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
+        <v>75</v>
+      </c>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
     </row>
     <row r="31" spans="1:17" ht="11.25" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
       <c r="B31" s="22"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="26"/>
+        <v>77</v>
+      </c>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="33"/>
     </row>
     <row r="32" spans="1:17" ht="11.25" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
       <c r="B32" s="22"/>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="26"/>
+        <v>75</v>
+      </c>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="33"/>
     </row>
     <row r="33" spans="1:17" ht="11.25" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
       <c r="B33" s="22"/>
-      <c r="C33" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
+      <c r="C33" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
+        <v>75</v>
+      </c>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
     </row>
     <row r="34" spans="1:17" ht="23.5" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
       <c r="B34" s="22"/>
-      <c r="C34" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
+      <c r="C34" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="26"/>
+        <v>75</v>
+      </c>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="33"/>
     </row>
     <row r="35" spans="1:17" ht="11.25" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
       <c r="B35" s="23"/>
-      <c r="C35" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="26"/>
+      <c r="C35" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="33"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P35" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q35" s="50"/>
+        <v>75</v>
+      </c>
+      <c r="P35" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q35" s="27"/>
     </row>
     <row r="36" spans="1:17" ht="62" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="27" t="s">
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="26"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="33"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q36" s="17"/>
     </row>
@@ -3248,131 +3176,89 @@
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="27" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="26"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="33"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q37" s="17"/>
     </row>
-    <row r="38" spans="1:17" s="77" customFormat="1" ht="56.5" customHeight="1">
-      <c r="A38" s="66">
-        <v>33</v>
-      </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="67" t="s">
+    <row r="38" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A38" s="6">
+        <v>34</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="73"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q38" s="76"/>
-    </row>
-    <row r="39" spans="1:17" ht="58.5" customHeight="1">
-      <c r="A39" s="6">
-        <v>34</v>
-      </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="17"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+  <mergeCells count="87">
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C14:G17"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -3389,35 +3275,48 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A1C958-22C7-46A3-A52D-DF48CFB95E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C426AF-017C-48CE-B0C9-814690C29262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
   <si>
     <t>作成者</t>
   </si>
@@ -1242,6 +1242,13 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川</t>
+    <rPh sb="0" eb="2">
+      <t>タチカワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1569,182 +1576,182 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2098,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="L47" activeCellId="1" sqref="L48 L45:L47"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2117,25 +2124,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2150,1099 +2157,1222 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="41" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="9" t="s">
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>45496</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="43" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="51"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" ht="42.5" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="51"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="52" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="14" t="s">
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="P5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="53"/>
+      <c r="Q5" s="46"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="15">
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="65">
         <v>45503</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="15">
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="65">
         <v>45503</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="28" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="15">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="65">
         <v>45503</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="56"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="28"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="28" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="15">
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="65">
         <v>45503</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="19"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="17"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="28" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="15">
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="65">
         <v>45503</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="19"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:17" ht="11.25" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="28" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="15">
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="65">
         <v>45503</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="19"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="1:17" ht="11.25" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="28" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="15">
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="65">
         <v>45503</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="19"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="64"/>
     </row>
     <row r="13" spans="1:17" ht="11.25" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="28" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="15">
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="65">
         <v>45503</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="56"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="28"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="28" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="15">
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="65">
         <v>45503</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="56"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="28"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="28" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="15">
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="65">
         <v>45503</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="19"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="11.25" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="28" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="15">
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="65">
         <v>45503</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="19"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="11.25" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="28" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="15">
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="65">
         <v>45503</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="19"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="31" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="28" t="s">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="15">
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="65">
         <v>45503</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="19"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="37.5" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7" t="s">
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="33"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="24"/>
     </row>
     <row r="20" spans="1:17" ht="39" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7" t="s">
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="17"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:17" ht="47" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="28" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7" t="s">
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P21" s="16" t="s">
+      <c r="P21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="Q21" s="17"/>
+      <c r="Q21" s="15"/>
     </row>
     <row r="22" spans="1:17" ht="39" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7" t="s">
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="17"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="15"/>
     </row>
     <row r="23" spans="1:17" ht="39" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7" t="s">
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="17"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="15"/>
     </row>
     <row r="24" spans="1:17" ht="39" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="28" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7" t="s">
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P24" s="16" t="s">
+      <c r="P24" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="Q24" s="17"/>
+      <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="1:17" ht="39" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7" t="s">
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="17"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="15"/>
     </row>
     <row r="26" spans="1:17" ht="39" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="28" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7" t="s">
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="28" t="s">
+      <c r="P26" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="Q26" s="30"/>
+      <c r="Q26" s="23"/>
     </row>
     <row r="27" spans="1:17" ht="72" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="28" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7" t="s">
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="Q27" s="33"/>
+      <c r="Q27" s="24"/>
     </row>
     <row r="28" spans="1:17" ht="51.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="28" t="s">
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7" t="s">
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="17"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="15"/>
     </row>
     <row r="29" spans="1:17" ht="11.25" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="27" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7" t="s">
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
     </row>
     <row r="30" spans="1:17" ht="11.25" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="28" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="27" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7" t="s">
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
     </row>
     <row r="31" spans="1:17" ht="11.25" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="28" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="27" t="s">
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7" t="s">
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="33"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="24"/>
     </row>
     <row r="32" spans="1:17" ht="11.25" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="28" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="27" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7" t="s">
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="33"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="24"/>
     </row>
     <row r="33" spans="1:17" ht="11.25" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="28" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="27" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7" t="s">
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
     </row>
     <row r="34" spans="1:17" ht="23.5" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="34" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="34" t="s">
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7" t="s">
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="33"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="24"/>
     </row>
     <row r="35" spans="1:17" ht="11.25" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="34" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="31" t="s">
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7" t="s">
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P35" s="27" t="s">
+      <c r="P35" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="Q35" s="27"/>
+      <c r="Q35" s="29"/>
     </row>
     <row r="36" spans="1:17" ht="62" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="31" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7" t="s">
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P36" s="16" t="s">
+      <c r="P36" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="Q36" s="17"/>
+      <c r="Q36" s="15"/>
     </row>
     <row r="37" spans="1:17" ht="61" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="28" t="s">
+      <c r="B37" s="48"/>
+      <c r="C37" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="31" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7" t="s">
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P37" s="16" t="s">
+      <c r="P37" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="Q37" s="17"/>
+      <c r="Q37" s="15"/>
     </row>
     <row r="38" spans="1:17" ht="58.5" customHeight="1">
       <c r="A38" s="6">
         <v>34</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="28" t="s">
+      <c r="B38" s="63"/>
+      <c r="C38" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31" t="s">
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7" t="s">
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="65">
+        <v>45504</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="17"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
@@ -3259,64 +3389,21 @@
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C14:G17"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P29:Q29"/>
     <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
     <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP019商品カテゴリ登録(入力)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C426AF-017C-48CE-B0C9-814690C29262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988EC909-FE4A-4F2E-8A4D-F70292D0D400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -1621,20 +1621,104 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1642,12 +1726,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1674,84 +1752,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2105,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2124,25 +2124,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2157,23 +2157,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="56" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -2188,50 +2188,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="43" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="51"/>
     </row>
     <row r="4" spans="1:17" ht="42.5" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="51"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -2240,20 +2240,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="45" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -2263,33 +2263,33 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="46"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="65">
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="23">
         <v>45503</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -2298,29 +2298,29 @@
       <c r="O6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="65">
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="23">
         <v>45503</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -2329,29 +2329,29 @@
       <c r="O7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="22" t="s">
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="65">
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="23">
         <v>45503</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -2360,27 +2360,27 @@
       <c r="O8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="28"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="22" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="65">
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="23">
         <v>45503</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -2397,19 +2397,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="22" t="s">
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="65">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="23">
         <v>45503</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -2426,19 +2426,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="22" t="s">
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="65">
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="23">
         <v>45503</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -2455,19 +2455,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="22" t="s">
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="65">
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="23">
         <v>45503</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -2477,26 +2477,26 @@
         <v>75</v>
       </c>
       <c r="P12" s="16"/>
-      <c r="Q12" s="64"/>
+      <c r="Q12" s="22"/>
     </row>
     <row r="13" spans="1:17" ht="11.25" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="22" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="65">
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="23">
         <v>45503</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -2505,29 +2505,29 @@
       <c r="O13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="28"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="56"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="22" t="s">
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="65">
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="23">
         <v>45503</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -2536,27 +2536,27 @@
       <c r="O14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="28"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="56"/>
     </row>
     <row r="15" spans="1:17" ht="11.25" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="22" t="s">
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="65">
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="23">
         <v>45503</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -2573,19 +2573,19 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="22" t="s">
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="65">
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="23">
         <v>45503</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2602,19 +2602,19 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="22" t="s">
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="65">
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="23">
         <v>45503</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -2631,21 +2631,21 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="22" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="65">
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="23">
         <v>45503</v>
       </c>
       <c r="N18" s="2" t="s">
@@ -2664,21 +2664,21 @@
       <c r="B19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="25" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="65">
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="23">
         <v>45504</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2687,8 +2687,8 @@
       <c r="O19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="24"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="30"/>
     </row>
     <row r="20" spans="1:17" ht="39" customHeight="1">
       <c r="A20" s="6">
@@ -2697,21 +2697,21 @@
       <c r="B20" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="25" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="65">
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="23">
         <v>45504</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2730,21 +2730,21 @@
       <c r="B21" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="22" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="65">
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="23">
         <v>45504</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -2765,21 +2765,21 @@
       <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="25" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="65">
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="23">
         <v>45504</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2798,21 +2798,21 @@
       <c r="B23" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="25" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="65">
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="23">
         <v>45504</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -2831,21 +2831,21 @@
       <c r="B24" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="22" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="65">
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="23">
         <v>45504</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2866,21 +2866,21 @@
       <c r="B25" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="25" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="65">
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="23">
         <v>45504</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -2899,21 +2899,21 @@
       <c r="B26" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="22" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="65">
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="23">
         <v>45504</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2922,10 +2922,10 @@
       <c r="O26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="22" t="s">
+      <c r="P26" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="Q26" s="23"/>
+      <c r="Q26" s="26"/>
     </row>
     <row r="27" spans="1:17" ht="72" customHeight="1">
       <c r="A27" s="6">
@@ -2934,21 +2934,21 @@
       <c r="B27" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="22" t="s">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="65">
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="23">
         <v>45504</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -2957,10 +2957,10 @@
       <c r="O27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P27" s="22" t="s">
+      <c r="P27" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="Q27" s="24"/>
+      <c r="Q27" s="30"/>
     </row>
     <row r="28" spans="1:17" ht="51.5" customHeight="1">
       <c r="A28" s="6">
@@ -2969,21 +2969,21 @@
       <c r="B28" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="22" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="65">
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="23">
         <v>45504</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3002,21 +3002,21 @@
       <c r="B29" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="29" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="65">
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="23">
         <v>45504</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -3025,29 +3025,29 @@
       <c r="O29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
     </row>
     <row r="30" spans="1:17" ht="11.25" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
       <c r="B30" s="20"/>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="29" t="s">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="65">
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="23">
         <v>45504</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3056,29 +3056,29 @@
       <c r="O30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
     </row>
     <row r="31" spans="1:17" ht="11.25" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
       <c r="B31" s="20"/>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="29" t="s">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="65">
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="23">
         <v>45504</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -3087,29 +3087,29 @@
       <c r="O31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="24"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="30"/>
     </row>
     <row r="32" spans="1:17" ht="11.25" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
       <c r="B32" s="20"/>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="29" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="65">
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="23">
         <v>45504</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -3118,29 +3118,29 @@
       <c r="O32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="24"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="30"/>
     </row>
     <row r="33" spans="1:17" ht="11.25" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
       <c r="B33" s="20"/>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="29" t="s">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="65">
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="23">
         <v>45504</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3149,29 +3149,29 @@
       <c r="O33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
     </row>
     <row r="34" spans="1:17" ht="23.5" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
       <c r="B34" s="20"/>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="62" t="s">
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="65">
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="23">
         <v>45504</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3180,29 +3180,29 @@
       <c r="O34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="24"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="30"/>
     </row>
     <row r="35" spans="1:17" ht="11.25" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
       <c r="B35" s="21"/>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="25" t="s">
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="65">
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="23">
         <v>45504</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3211,33 +3211,33 @@
       <c r="O35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P35" s="29" t="s">
+      <c r="P35" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="Q35" s="29"/>
+      <c r="Q35" s="27"/>
     </row>
     <row r="36" spans="1:17" ht="62" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="25" t="s">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="65">
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="23">
         <v>45504</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3255,22 +3255,22 @@
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="22" t="s">
+      <c r="B37" s="32"/>
+      <c r="C37" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="25" t="s">
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="65">
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="23">
         <v>45504</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -3288,22 +3288,22 @@
       <c r="A38" s="6">
         <v>34</v>
       </c>
-      <c r="B38" s="63"/>
-      <c r="C38" s="22" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="25" t="s">
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="65">
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="23">
         <v>45504</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -3317,46 +3317,37 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C14:G17"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -3373,37 +3364,46 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
